--- a/biology/Zoologie/Carouge_à_ventre_rouge/Carouge_à_ventre_rouge.xlsx
+++ b/biology/Zoologie/Carouge_à_ventre_rouge/Carouge_à_ventre_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_ventre_rouge</t>
+          <t>Carouge_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge à ventre rouge (Hypopyrrhus pyrohypogaster), aussi appelé Quiscale à ventre rouge, est une espèce de passereau de la famille des ictéridés, la seule représentante du genre Hypopyrrhus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_ventre_rouge</t>
+          <t>Carouge_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_ventre_rouge</t>
+          <t>Carouge_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le carouge à ventre rouge habite les forêts subtropicales humides, souvent le long des lisières.  Il fréquente également dans les habitats buissonneux et les forêts secondaires.
 </t>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_ventre_rouge</t>
+          <t>Carouge_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le carouge à ventre rouge s’observe généralement en petits groupes familiaux de moins d’une douzaine d’individus et accompagné du Cassique à dos rouge, quelquefois du Geai vert, du Tityre masqué et de Tangaras.  Ces groupes sont bruyants et facilement repérables.
 </t>
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_ventre_rouge</t>
+          <t>Carouge_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La distribution du Carouge à ventre rouge s’est réduite à la suite de la destruction de son habitat.  Il se retrouve à quelques endroits localisés dans les montagnes de la Colombie entre 800 et 2 400 mètres d’altitude.  On estime que si la fragmentation de son habitat se poursuit, il pourrait disparaître. 
 </t>
